--- a/testData/operation_audit_report.xlsx
+++ b/testData/operation_audit_report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="add_opt_report" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="edit_plan_report" sheetId="19" r:id="rId5"/>
     <sheet name="del_opt_report" sheetId="16" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -757,21 +757,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.125" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="37.25" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -1010,11 +1010,11 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="5" width="56.125" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="2" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1">
@@ -1232,16 +1232,16 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.375" customWidth="1"/>
-    <col min="2" max="2" width="58.75" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1">
+    <row r="1" spans="1:6" ht="24.9" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+    <row r="2" spans="1:6" ht="24.9" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1">
+    <row r="3" spans="1:6" ht="24.9" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1">
+    <row r="4" spans="1:6" ht="24.9" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1">
+    <row r="5" spans="1:6" ht="24.9" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1">
+    <row r="6" spans="1:6" ht="24.9" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1339,17 +1339,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="81.25" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="81.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27">
+    <row r="3" spans="1:8" ht="28.8">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1466,17 +1466,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="56.25" customWidth="1"/>
+    <col min="8" max="8" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1538,13 +1538,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="3" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="3" width="30.77734375" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1">
+    <row r="2" spans="1:4" ht="24.9" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1">
+    <row r="3" spans="1:4" ht="24.9" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1">
+    <row r="4" spans="1:4" ht="24.9" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1">
+    <row r="5" spans="1:4" ht="24.9" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1">
+    <row r="6" spans="1:4" ht="24.9" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
